--- a/week5_TestNG/data/DeleteLead.xlsx
+++ b/week5_TestNG/data/DeleteLead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Selenium\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C35D9D-D81E-4EA6-8072-0D9F94242B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE0ABB8-A60D-4174-83FF-DE1FE2CEBB03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7A9E40B8-8B6C-4232-BDE3-B632F526E0DB}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>PhoneNumber</t>
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
